--- a/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="12504" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="12504"/>
   </bookViews>
   <sheets>
     <sheet name="1. Yêu cầu thiết kế" sheetId="1" r:id="rId1"/>
@@ -2563,273 +2563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2845,6 +2578,273 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,19 +3758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3778,21 +3778,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="174" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="179" t="s">
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="146" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="J4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
@@ -3852,10 +3852,10 @@
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="135" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
@@ -3873,10 +3873,10 @@
       <c r="H6" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="168" t="s">
+      <c r="J6" s="135" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="70"/>
@@ -3885,8 +3885,8 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="169"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="95" t="s">
         <v>57</v>
       </c>
@@ -3902,16 +3902,16 @@
       <c r="H7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="155"/>
-      <c r="J7" s="169"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="169"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="95" t="s">
         <v>67</v>
       </c>
@@ -3927,16 +3927,16 @@
       <c r="H8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="169"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="169"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="95" t="s">
         <v>46</v>
       </c>
@@ -3952,16 +3952,16 @@
       <c r="H9" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="172"/>
-      <c r="C10" s="169"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="96" t="s">
         <v>120</v>
       </c>
@@ -3974,17 +3974,17 @@
       <c r="G10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="141" t="s">
+      <c r="H10" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="155"/>
-      <c r="J10" s="169"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="136"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="169"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="97" t="s">
         <v>118</v>
       </c>
@@ -3997,17 +3997,17 @@
       <c r="G11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="169"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="136"/>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="169"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="98" t="s">
         <v>72</v>
       </c>
@@ -4023,16 +4023,16 @@
       <c r="H12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="169"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="136"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="170"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="99" t="s">
         <v>46</v>
       </c>
@@ -4046,8 +4046,8 @@
       <c r="H13" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="170"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="137"/>
       <c r="K13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,10 +4073,10 @@
       <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="157" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="95" t="str">
@@ -4099,10 +4099,10 @@
         <f>H6</f>
         <v>Giá trị của ngày cuối cùng tại thời điểm lấy dữ liệu</v>
       </c>
-      <c r="I15" s="154" t="s">
+      <c r="I15" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="149" t="s">
+      <c r="J15" s="157" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="52"/>
@@ -4111,8 +4111,8 @@
       <c r="A16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="160"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="98" t="s">
         <v>82</v>
       </c>
@@ -4128,8 +4128,8 @@
       <c r="H16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="149"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="53" t="s">
         <v>111</v>
       </c>
@@ -4138,8 +4138,8 @@
       <c r="A17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="149"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="157"/>
       <c r="D17" s="98" t="s">
         <v>110</v>
       </c>
@@ -4155,8 +4155,8 @@
       <c r="H17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="155"/>
-      <c r="J17" s="149"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="157"/>
       <c r="K17" s="54" t="s">
         <v>112</v>
       </c>
@@ -4165,8 +4165,8 @@
       <c r="A18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="150"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="101" t="s">
         <v>84</v>
       </c>
@@ -4182,8 +4182,8 @@
       <c r="H18" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="150"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="158"/>
       <c r="K18" s="59" t="s">
         <v>228</v>
       </c>
@@ -4211,10 +4211,10 @@
       <c r="A20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="161" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="96" t="s">
@@ -4232,13 +4232,13 @@
       <c r="H20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="139" t="s">
+      <c r="I20" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="145" t="s">
+      <c r="J20" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="130" t="s">
+      <c r="K20" s="178" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4246,8 +4246,8 @@
       <c r="A21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="100" t="s">
         <v>117</v>
       </c>
@@ -4263,9 +4263,9 @@
       <c r="H21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="157"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="131"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="179"/>
     </row>
     <row r="22" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
@@ -4287,13 +4287,13 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="161" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="96" t="s">
@@ -4308,21 +4308,21 @@
       <c r="G23" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="139" t="s">
+      <c r="I23" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="151" t="s">
+      <c r="J23" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="129"/>
+      <c r="K23" s="177"/>
     </row>
     <row r="24" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="146"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="188"/>
       <c r="D24" s="97" t="s">
         <v>118</v>
       </c>
@@ -4335,39 +4335,39 @@
       <c r="G24" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="142"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="129"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="177"/>
     </row>
     <row r="25" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="165" t="s">
+      <c r="C25" s="188"/>
+      <c r="D25" s="166" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="132" t="s">
+      <c r="F25" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="210" t="s">
+      <c r="G25" s="189" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="152"/>
-      <c r="K25" s="128" t="s">
+      <c r="J25" s="170"/>
+      <c r="K25" s="176" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4375,62 +4375,62 @@
       <c r="A26" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="166"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="211"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="190"/>
       <c r="H26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="158"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="129"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="177"/>
     </row>
     <row r="27" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="167"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="212"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="191"/>
       <c r="H27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="158"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="129"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="177"/>
     </row>
     <row r="28" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="213"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="193"/>
       <c r="E28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="132" t="s">
+      <c r="F28" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="210" t="s">
+      <c r="G28" s="189" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="158"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="128" t="s">
+      <c r="I28" s="174"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="176" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4438,58 +4438,58 @@
       <c r="A29" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="214"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="194"/>
       <c r="E29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="211"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="190"/>
       <c r="H29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="158"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="129"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="177"/>
     </row>
     <row r="30" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="214"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="211"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="190"/>
       <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="158"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="129"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="177"/>
     </row>
     <row r="31" spans="1:23" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="215"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="195"/>
       <c r="E31" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="216"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="192"/>
       <c r="H31" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="159"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="148"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M32" s="1"/>
@@ -4818,28 +4818,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I25:I31"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="F28:F31"/>
@@ -4854,6 +4832,28 @@
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="K28:K31"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4901,23 +4901,23 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="187"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="201"/>
     </row>
     <row r="6" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -4929,21 +4929,21 @@
       <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="192" t="s">
+      <c r="E6" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="193"/>
+      <c r="F6" s="207"/>
       <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="209"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="223"/>
     </row>
     <row r="7" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -4955,19 +4955,19 @@
       <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="198" t="s">
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="200"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="214"/>
     </row>
     <row r="8" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -4979,15 +4979,15 @@
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="203"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="217"/>
     </row>
     <row r="9" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -4999,15 +4999,15 @@
       <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="203"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="217"/>
     </row>
     <row r="10" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -5019,15 +5019,15 @@
       <c r="C10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="203"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="217"/>
     </row>
     <row r="11" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5039,15 +5039,15 @@
       <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="203"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="217"/>
     </row>
     <row r="12" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -5059,15 +5059,15 @@
       <c r="C12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="194"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="203"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="217"/>
     </row>
     <row r="13" spans="1:13" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -5079,35 +5079,35 @@
       <c r="C13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="206"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="220"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="187"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="185" t="s">
+      <c r="G15" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="187"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="201"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -5128,31 +5128,31 @@
       <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="189"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
       <c r="F17" s="108"/>
       <c r="G17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="197" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="184"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="198"/>
     </row>
     <row r="18" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="189"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="203"/>
       <c r="F18" s="108"/>
       <c r="G18" s="125"/>
       <c r="H18" s="3"/>
@@ -5166,10 +5166,10 @@
       <c r="A19" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="191"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
       <c r="F19" s="108"/>
       <c r="G19" s="127" t="s">
         <v>241</v>
@@ -7632,90 +7632,90 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="217" t="s">
+    <row r="21" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="217" t="s">
+      <c r="C21" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="217" t="s">
+      <c r="D21" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="218" t="s">
+      <c r="E21" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="219">
+      <c r="F21" s="130">
         <v>44236.133090277777</v>
       </c>
-      <c r="G21" s="218" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="220">
+      <c r="G21" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="131">
         <v>352</v>
       </c>
-      <c r="I21" s="220">
+      <c r="I21" s="131">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="217" t="s">
+    <row r="22" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="217" t="s">
+      <c r="C22" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="217" t="s">
+      <c r="D22" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="218" t="s">
+      <c r="E22" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="219">
+      <c r="F22" s="130">
         <v>44236.127905092595</v>
       </c>
-      <c r="G22" s="218" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="220">
+      <c r="G22" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="131">
         <v>2</v>
       </c>
-      <c r="I22" s="218" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="217" t="s">
+      <c r="I22" s="129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="217" t="s">
+      <c r="C23" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="217" t="s">
+      <c r="D23" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="218" t="s">
+      <c r="E23" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="219">
+      <c r="F23" s="130">
         <v>44236.046238425923</v>
       </c>
-      <c r="G23" s="220">
+      <c r="G23" s="131">
         <v>3</v>
       </c>
-      <c r="H23" s="220">
+      <c r="H23" s="131">
         <v>51</v>
       </c>
-      <c r="I23" s="220">
+      <c r="I23" s="131">
         <v>1</v>
       </c>
     </row>
@@ -7864,32 +7864,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="217" t="s">
+    <row r="29" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="217" t="s">
+      <c r="C29" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="217" t="s">
+      <c r="D29" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="218" t="s">
+      <c r="E29" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="219">
+      <c r="F29" s="130">
         <v>44229.03334490741</v>
       </c>
-      <c r="G29" s="220">
+      <c r="G29" s="131">
         <v>2</v>
       </c>
-      <c r="H29" s="220">
+      <c r="H29" s="131">
         <v>77</v>
       </c>
-      <c r="I29" s="220">
+      <c r="I29" s="131">
         <v>1</v>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
@@ -8301,7 +8301,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222" t="s">
+      <c r="A9" s="133" t="s">
         <v>276</v>
       </c>
       <c r="B9" s="112" t="s">
@@ -8333,7 +8333,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="134" t="s">
         <v>277</v>
       </c>
       <c r="B10" s="112" t="s">

--- a/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="279">
   <si>
     <t>YÊU CẦU THIẾT KẾ TRANG FANPAGE TRÊN NỀN TẢNG POWER BI</t>
   </si>
@@ -1328,6 +1328,9 @@
   </si>
   <si>
     <t>post_consumptions_by_type</t>
+  </si>
+  <si>
+    <t>Thiếu công thức ER</t>
   </si>
 </sst>
 </file>
@@ -2578,6 +2581,147 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2621,147 +2765,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3738,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,19 +3761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3778,21 +3781,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="141" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="146" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="193" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3827,7 +3830,7 @@
       <c r="J4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="147"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="1:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
@@ -3852,10 +3855,10 @@
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="182" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
@@ -3873,10 +3876,10 @@
       <c r="H6" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I6" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="182" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="70"/>
@@ -3885,8 +3888,8 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="136"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="95" t="s">
         <v>57</v>
       </c>
@@ -3902,16 +3905,18 @@
       <c r="H7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="151"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="71" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="95" t="s">
         <v>67</v>
       </c>
@@ -3927,16 +3932,16 @@
       <c r="H8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="136"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="136"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="95" t="s">
         <v>46</v>
       </c>
@@ -3952,16 +3957,16 @@
       <c r="H9" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="136"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="183"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="96" t="s">
         <v>120</v>
       </c>
@@ -3974,17 +3979,17 @@
       <c r="G10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="153" t="s">
+      <c r="H10" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="151"/>
-      <c r="J10" s="136"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="136"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="97" t="s">
         <v>118</v>
       </c>
@@ -3997,17 +4002,17 @@
       <c r="G11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="154"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="136"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="136"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="98" t="s">
         <v>72</v>
       </c>
@@ -4023,16 +4028,16 @@
       <c r="H12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="136"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="137"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="99" t="s">
         <v>46</v>
       </c>
@@ -4046,8 +4051,8 @@
       <c r="H13" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="137"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,10 +4078,10 @@
       <c r="A15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="163" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="95" t="str">
@@ -4099,10 +4104,10 @@
         <f>H6</f>
         <v>Giá trị của ngày cuối cùng tại thời điểm lấy dữ liệu</v>
       </c>
-      <c r="I15" s="150" t="s">
+      <c r="I15" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="157" t="s">
+      <c r="J15" s="163" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="52"/>
@@ -4111,8 +4116,8 @@
       <c r="A16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="157"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="98" t="s">
         <v>82</v>
       </c>
@@ -4128,8 +4133,8 @@
       <c r="H16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="151"/>
-      <c r="J16" s="157"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="163"/>
       <c r="K16" s="53" t="s">
         <v>111</v>
       </c>
@@ -4138,8 +4143,8 @@
       <c r="A17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="157"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="98" t="s">
         <v>110</v>
       </c>
@@ -4155,8 +4160,8 @@
       <c r="H17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="157"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="54" t="s">
         <v>112</v>
       </c>
@@ -4165,8 +4170,8 @@
       <c r="A18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="158"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="101" t="s">
         <v>84</v>
       </c>
@@ -4182,8 +4187,8 @@
       <c r="H18" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="158"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="59" t="s">
         <v>228</v>
       </c>
@@ -4211,10 +4216,10 @@
       <c r="A20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="152" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="96" t="s">
@@ -4232,13 +4237,13 @@
       <c r="H20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="172" t="s">
+      <c r="I20" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="161" t="s">
+      <c r="J20" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="178" t="s">
+      <c r="K20" s="137" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4246,8 +4251,8 @@
       <c r="A21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="162"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="100" t="s">
         <v>117</v>
       </c>
@@ -4263,9 +4268,9 @@
       <c r="H21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="173"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="179"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="138"/>
     </row>
     <row r="22" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
@@ -4287,13 +4292,13 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="152" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="96" t="s">
@@ -4308,21 +4313,21 @@
       <c r="G23" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="153" t="s">
+      <c r="H23" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="172" t="s">
+      <c r="I23" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="169" t="s">
+      <c r="J23" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="177"/>
+      <c r="K23" s="136"/>
     </row>
     <row r="24" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="188"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="97" t="s">
         <v>118</v>
       </c>
@@ -4335,39 +4340,39 @@
       <c r="G24" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="154"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="177"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="136"/>
     </row>
     <row r="25" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="188"/>
-      <c r="D25" s="166" t="s">
+      <c r="C25" s="153"/>
+      <c r="D25" s="179" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="163" t="s">
+      <c r="F25" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="189" t="s">
+      <c r="G25" s="155" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="172" t="s">
+      <c r="I25" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="170"/>
-      <c r="K25" s="176" t="s">
+      <c r="J25" s="166"/>
+      <c r="K25" s="135" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4375,62 +4380,62 @@
       <c r="A26" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="167"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="164"/>
-      <c r="G26" s="190"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="156"/>
       <c r="H26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="174"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="177"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="136"/>
     </row>
     <row r="27" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="186"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="168"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="191"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="174"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="177"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="136"/>
     </row>
     <row r="28" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="193"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="163" t="s">
+      <c r="F28" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="189" t="s">
+      <c r="G28" s="155" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="174"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="176" t="s">
+      <c r="I28" s="172"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="135" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4438,58 +4443,58 @@
       <c r="A29" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="186"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="194"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="160"/>
       <c r="E29" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="164"/>
-      <c r="G29" s="190"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="174"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="177"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="194"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="160"/>
       <c r="E30" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="164"/>
-      <c r="G30" s="190"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="174"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="177"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="136"/>
     </row>
     <row r="31" spans="1:23" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="187"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="195"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="161"/>
       <c r="E31" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="192"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="158"/>
       <c r="H31" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="175"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="196"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="162"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M32" s="1"/>
@@ -4818,6 +4823,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I25:I31"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="F28:F31"/>
@@ -4832,28 +4859,6 @@
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="K28:K31"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4867,7 +4872,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:M15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="12504"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="1. Yêu cầu thiết kế" sheetId="1" r:id="rId1"/>
@@ -111,31 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Thiết kế như Mẫu 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +159,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiết kế như Mẫu 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="280">
   <si>
     <t>YÊU CẦU THIẾT KẾ TRANG FANPAGE TRÊN NỀN TẢNG POWER BI</t>
   </si>
@@ -1237,9 +1237,6 @@
     <t>xx.y%</t>
   </si>
   <si>
-    <t>Giá trị của ngày cuối cùng tại thời điểm lấy dữ liệu</t>
-  </si>
-  <si>
     <t>Daily: The number of clicks on any of your content, by type. Stories generated without clicks on page content (e.g., liking the page in Timeline) are not included. (Total Count)</t>
   </si>
   <si>
@@ -1331,6 +1328,12 @@
   </si>
   <si>
     <t>Thiếu công thức ER</t>
+  </si>
+  <si>
+    <t>ENGAGEMENT RATE(ER)</t>
+  </si>
+  <si>
+    <t>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2581,6 +2584,132 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,12 +2722,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2614,33 +2737,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,108 +2773,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2847,6 +2853,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3739,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3761,19 +3770,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3781,21 +3790,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="188" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="193" t="s">
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="147" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3830,7 +3839,7 @@
       <c r="J4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="194"/>
+      <c r="K4" s="148"/>
     </row>
     <row r="5" spans="1:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
@@ -3855,10 +3864,10 @@
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="136" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
@@ -3874,12 +3883,12 @@
         <v>46</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="182" t="s">
+      <c r="J6" s="136" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="70"/>
@@ -3888,8 +3897,8 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="183"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="95" t="s">
         <v>57</v>
       </c>
@@ -3905,18 +3914,18 @@
       <c r="H7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="183"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="137"/>
       <c r="K7" s="71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="183"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="95" t="s">
         <v>67</v>
       </c>
@@ -3932,16 +3941,16 @@
       <c r="H8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="169"/>
-      <c r="J8" s="183"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="183"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="137"/>
       <c r="D9" s="95" t="s">
         <v>46</v>
       </c>
@@ -3957,16 +3966,16 @@
       <c r="H9" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="183"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="137"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="183"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="96" t="s">
         <v>120</v>
       </c>
@@ -3979,17 +3988,17 @@
       <c r="G10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="148" t="s">
+      <c r="H10" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="169"/>
-      <c r="J10" s="183"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="137"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="183"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="97" t="s">
         <v>118</v>
       </c>
@@ -4002,157 +4011,147 @@
       <c r="G11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="183"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="137"/>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>79</v>
-      </c>
+    <row r="12" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="135" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="140"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="183"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="137"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="187"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="88"/>
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="140"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="170"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="75"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="I13" s="152"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="75"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C15" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="51"/>
-    </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="33" t="str">
+        <f>H6</f>
+        <v>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B16" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C16" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="95" t="str">
+      <c r="D16" s="95" t="str">
         <f>D6</f>
         <v>page_fans</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E16" s="16" t="str">
         <f>E6</f>
         <v>Lifetime Total Likes</v>
       </c>
-      <c r="F15" s="32" t="str">
+      <c r="F16" s="32" t="str">
         <f>F6</f>
         <v>Lifetime: The total number of people who have liked your Page. (Unique Users)</v>
       </c>
-      <c r="G15" s="37" t="str">
+      <c r="G16" s="37" t="str">
         <f>G6</f>
         <v>x</v>
       </c>
-      <c r="H15" s="33" t="str">
-        <f>H6</f>
-        <v>Giá trị của ngày cuối cùng tại thời điểm lấy dữ liệu</v>
-      </c>
-      <c r="I15" s="168" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="163" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="52"/>
-    </row>
-    <row r="16" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="169"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="158" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="163"/>
+        <v>35</v>
+      </c>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="98" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>79</v>
@@ -4160,354 +4159,368 @@
       <c r="H17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="54" t="s">
+      <c r="I17" s="152"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" s="152"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
+    <row r="19" spans="1:11" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="101" t="s">
+      <c r="B19" s="157"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="90" t="s">
+      <c r="G19" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="59" t="s">
+      <c r="H19" s="78"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-    </row>
-    <row r="20" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="176" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>79</v>
-      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="152" t="s">
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+    </row>
+    <row r="21" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="137" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="92" t="s">
+      <c r="D21" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="91" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="171"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="138"/>
-    </row>
-    <row r="22" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="I21" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="162" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="179" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="161"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="180"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B23" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C23" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-    </row>
-    <row r="23" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="142" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+    </row>
+    <row r="24" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B24" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C24" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D24" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F24" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G24" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="146" t="s">
+      <c r="H24" s="155"/>
+      <c r="I24" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="165" t="s">
+      <c r="J24" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="136"/>
-    </row>
-    <row r="24" spans="1:23" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="97" t="s">
+      <c r="K24" s="178"/>
+    </row>
+    <row r="25" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="183"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E25" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F25" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="94" t="s">
+      <c r="G25" s="94" t="s">
         <v>79</v>
-      </c>
-      <c r="H24" s="149"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="136"/>
-    </row>
-    <row r="25" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="144" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="179" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="155" t="s">
-        <v>46</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="166"/>
-      <c r="K25" s="135" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="186"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="178"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="180"/>
+        <v>39</v>
+      </c>
+      <c r="B26" s="184" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="189"/>
+      <c r="D26" s="167" t="s">
+        <v>129</v>
+      </c>
       <c r="E26" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="156"/>
+        <v>130</v>
+      </c>
+      <c r="F26" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="190" t="s">
+        <v>46</v>
+      </c>
       <c r="H26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="172"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="136"/>
-    </row>
-    <row r="27" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="173" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="171"/>
+      <c r="K26" s="177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="181"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="187"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="157"/>
+        <v>131</v>
+      </c>
+      <c r="F27" s="165"/>
+      <c r="G27" s="191"/>
       <c r="H27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="172"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="136"/>
-    </row>
-    <row r="28" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="175"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="178"/>
+    </row>
+    <row r="28" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="155" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B28" s="187"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="166"/>
+      <c r="G28" s="192"/>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="172"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="135" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="175"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="178"/>
+    </row>
+    <row r="29" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="160"/>
+        <v>42</v>
+      </c>
+      <c r="B29" s="187"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="194"/>
       <c r="E29" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="140"/>
-      <c r="G29" s="156"/>
+        <v>235</v>
+      </c>
+      <c r="F29" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="190" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="172"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="136"/>
-    </row>
-    <row r="30" spans="1:23" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="175"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="177" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="160"/>
+        <v>44</v>
+      </c>
+      <c r="B30" s="187"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="140"/>
-      <c r="G30" s="156"/>
+        <v>236</v>
+      </c>
+      <c r="F30" s="165"/>
+      <c r="G30" s="191"/>
       <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="172"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="136"/>
-    </row>
-    <row r="31" spans="1:23" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="151"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="158"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="178"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="187"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="165"/>
+      <c r="G31" s="191"/>
       <c r="H31" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="173"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="162"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="178"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="188"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="181"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="176"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="197"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M33" s="1"/>
@@ -4821,44 +4834,57 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
+    <row r="57" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B6:B14"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J6:J14"/>
+    <mergeCell ref="I6:I14"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="K28:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4871,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4906,23 +4932,23 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="201"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="199" t="s">
+      <c r="E5" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="202"/>
     </row>
     <row r="6" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -4934,21 +4960,21 @@
       <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="206" t="s">
+      <c r="E6" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="207"/>
+      <c r="F6" s="208"/>
       <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="221" t="s">
+      <c r="H6" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -4960,19 +4986,19 @@
       <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="208" t="s">
+      <c r="E7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="212" t="s">
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="215"/>
     </row>
     <row r="8" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -4984,15 +5010,15 @@
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="217"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="218"/>
     </row>
     <row r="9" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -5004,15 +5030,15 @@
       <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="217"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="218"/>
     </row>
     <row r="10" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -5024,15 +5050,15 @@
       <c r="C10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="217"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218"/>
     </row>
     <row r="11" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5044,15 +5070,15 @@
       <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="216"/>
-      <c r="M11" s="217"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="218"/>
     </row>
     <row r="12" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -5064,15 +5090,15 @@
       <c r="C12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="217"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="218"/>
     </row>
     <row r="13" spans="1:13" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -5084,35 +5110,35 @@
       <c r="C13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="220"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="221"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="202"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="199" t="s">
+      <c r="G15" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="202"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -5133,31 +5159,31 @@
       <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
       <c r="F17" s="108"/>
       <c r="G17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="197" t="s">
+      <c r="H17" s="198" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="199"/>
     </row>
     <row r="18" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="203"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="204"/>
       <c r="F18" s="108"/>
       <c r="G18" s="125"/>
       <c r="H18" s="3"/>
@@ -5171,10 +5197,10 @@
       <c r="A19" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
       <c r="F19" s="108"/>
       <c r="G19" s="127" t="s">
         <v>241</v>
@@ -5223,8 +5249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:M2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5484,7 +5510,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="43">
         <v>44230</v>
@@ -7039,54 +7065,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="107" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="107" customWidth="1"/>
-    <col min="7" max="9" width="12.109375" style="107" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="41"/>
+    <col min="2" max="2" width="51.77734375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="107" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="107" customWidth="1"/>
+    <col min="8" max="10" width="12.109375" style="107" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="I1" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="J1" s="120" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>128</v>
       </c>
@@ -7094,28 +7122,31 @@
         <v>141</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="F2" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="105">
+      <c r="G2" s="105">
         <v>44253.833344907405</v>
       </c>
-      <c r="G2" s="106">
+      <c r="H2" s="106">
         <v>2</v>
       </c>
-      <c r="H2" s="106">
+      <c r="I2" s="106">
         <v>126</v>
       </c>
-      <c r="I2" s="106">
+      <c r="J2" s="106">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>106</v>
       </c>
@@ -7123,903 +7154,1004 @@
         <v>145</v>
       </c>
       <c r="C3" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="F3" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="105">
+      <c r="G3" s="105">
         <v>44253.729178240741</v>
       </c>
-      <c r="G3" s="106">
+      <c r="H3" s="106">
         <v>1</v>
       </c>
-      <c r="H3" s="106">
+      <c r="I3" s="106">
         <v>89</v>
       </c>
-      <c r="I3" s="106">
+      <c r="J3" s="106">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="225" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="105">
+      <c r="G4" s="105">
         <v>44253.208344907405</v>
       </c>
-      <c r="G4" s="106">
+      <c r="H4" s="106">
         <v>7</v>
       </c>
-      <c r="H4" s="106">
+      <c r="I4" s="106">
         <v>34</v>
       </c>
-      <c r="I4" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="F5" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="105">
+      <c r="G5" s="105">
         <v>44252.854178240741</v>
       </c>
-      <c r="G5" s="106">
+      <c r="H5" s="106">
         <v>12</v>
       </c>
-      <c r="H5" s="106">
+      <c r="I5" s="106">
         <v>262</v>
       </c>
-      <c r="I5" s="106">
+      <c r="J5" s="106">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="F6" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="105">
+      <c r="G6" s="105">
         <v>44251.208356481482</v>
       </c>
-      <c r="G6" s="106">
+      <c r="H6" s="106">
         <v>20</v>
       </c>
-      <c r="H6" s="106">
+      <c r="I6" s="106">
         <v>45</v>
       </c>
-      <c r="I6" s="106">
+      <c r="J6" s="106">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="E7" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="F7" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="105">
+      <c r="G7" s="105">
         <v>44249.208356481482</v>
       </c>
-      <c r="G7" s="106">
+      <c r="H7" s="106">
         <v>27</v>
       </c>
-      <c r="H7" s="106">
+      <c r="I7" s="106">
         <v>161</v>
       </c>
-      <c r="I7" s="106">
+      <c r="J7" s="106">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="F8" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="105">
+      <c r="G8" s="105">
         <v>44249.19226851852</v>
       </c>
-      <c r="G8" s="106">
+      <c r="H8" s="106">
         <v>44</v>
       </c>
-      <c r="H8" s="106">
+      <c r="I8" s="106">
         <v>345</v>
       </c>
-      <c r="I8" s="106">
+      <c r="J8" s="106">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="E9" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="F9" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="105">
+      <c r="G9" s="105">
         <v>44248.854178240741</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="106">
+      <c r="H9" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="106">
         <v>162</v>
       </c>
-      <c r="I9" s="106">
+      <c r="J9" s="106">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="D10" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="F10" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="105">
+      <c r="G10" s="105">
         <v>44245.797523148147</v>
       </c>
-      <c r="G10" s="106">
+      <c r="H10" s="106">
         <v>1</v>
       </c>
-      <c r="H10" s="106">
+      <c r="I10" s="106">
         <v>47</v>
       </c>
-      <c r="I10" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="F11" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="105">
+      <c r="G11" s="105">
         <v>44244.915567129632</v>
       </c>
-      <c r="G11" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="106">
+      <c r="H11" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="106">
         <v>566</v>
       </c>
-      <c r="I11" s="106">
+      <c r="J11" s="106">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="F12" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="105">
+      <c r="G12" s="105">
         <v>44244.910162037035</v>
       </c>
-      <c r="G12" s="106">
+      <c r="H12" s="106">
         <v>1</v>
       </c>
-      <c r="H12" s="106">
+      <c r="I12" s="106">
         <v>102</v>
       </c>
-      <c r="I12" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="225" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="D13" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="F13" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="105">
+      <c r="G13" s="105">
         <v>44244.000023148146</v>
       </c>
-      <c r="G13" s="106">
+      <c r="H13" s="106">
         <v>29</v>
       </c>
-      <c r="H13" s="106">
+      <c r="I13" s="106">
         <v>904</v>
       </c>
-      <c r="I13" s="106">
+      <c r="J13" s="106">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="D14" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="E14" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="F14" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="105">
+      <c r="G14" s="105">
         <v>44241.759004629632</v>
       </c>
-      <c r="G14" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="106">
+      <c r="H14" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="106">
         <v>80</v>
       </c>
-      <c r="I14" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="D15" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="F15" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="105">
+      <c r="G15" s="105">
         <v>44240.703402777777</v>
       </c>
-      <c r="G15" s="106">
+      <c r="H15" s="106">
         <v>18</v>
       </c>
-      <c r="H15" s="106">
+      <c r="I15" s="106">
         <v>166</v>
       </c>
-      <c r="I15" s="106">
+      <c r="J15" s="106">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="E16" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="F16" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="105">
+      <c r="G16" s="105">
         <v>44239.360497685186</v>
       </c>
-      <c r="G16" s="106">
+      <c r="H16" s="106">
         <v>1</v>
       </c>
-      <c r="H16" s="106">
+      <c r="I16" s="106">
         <v>99</v>
       </c>
-      <c r="I16" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="225" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="F17" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="105">
+      <c r="G17" s="105">
         <v>44238.708634259259</v>
       </c>
-      <c r="G17" s="106">
+      <c r="H17" s="106">
         <v>3</v>
       </c>
-      <c r="H17" s="106">
+      <c r="I17" s="106">
         <v>133</v>
       </c>
-      <c r="I17" s="106">
+      <c r="J17" s="106">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="D18" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="E18" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="F18" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="105">
+      <c r="G18" s="105">
         <v>44238.362557870372</v>
       </c>
-      <c r="G18" s="106">
+      <c r="H18" s="106">
         <v>8</v>
       </c>
-      <c r="H18" s="106">
+      <c r="I18" s="106">
         <v>485</v>
       </c>
-      <c r="I18" s="106">
+      <c r="J18" s="106">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="D19" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="E19" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="F19" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="105">
+      <c r="G19" s="105">
         <v>44238.322384259256</v>
       </c>
-      <c r="G19" s="106">
+      <c r="H19" s="106">
         <v>7</v>
       </c>
-      <c r="H19" s="106">
+      <c r="I19" s="106">
         <v>265</v>
       </c>
-      <c r="I19" s="106">
+      <c r="J19" s="106">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="D20" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="E20" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="F20" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="105">
+      <c r="G20" s="105">
         <v>44237.208344907405</v>
       </c>
-      <c r="G20" s="106">
+      <c r="H20" s="106">
         <v>33</v>
       </c>
-      <c r="H20" s="106">
+      <c r="I20" s="106">
         <v>328</v>
       </c>
-      <c r="I20" s="106">
+      <c r="J20" s="106">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="128" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="D21" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="E21" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="F21" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="130">
+      <c r="G21" s="130">
         <v>44236.133090277777</v>
       </c>
-      <c r="G21" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="131">
+      <c r="H21" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="131">
         <v>352</v>
       </c>
-      <c r="I21" s="131">
+      <c r="J21" s="131">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="128" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="D22" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="E22" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="F22" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="130">
+      <c r="G22" s="130">
         <v>44236.127905092595</v>
       </c>
-      <c r="G22" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="131">
+      <c r="H22" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="131">
         <v>2</v>
       </c>
-      <c r="I22" s="129" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="225" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="D23" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="E23" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="F23" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="130">
+      <c r="G23" s="130">
         <v>44236.046238425923</v>
       </c>
-      <c r="G23" s="131">
+      <c r="H23" s="131">
         <v>3</v>
       </c>
-      <c r="H23" s="131">
+      <c r="I23" s="131">
         <v>51</v>
       </c>
-      <c r="I23" s="131">
+      <c r="J23" s="131">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B24" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="D24" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="E24" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="F24" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="105">
+      <c r="G24" s="105">
         <v>44235.041759259257</v>
       </c>
-      <c r="G24" s="106">
+      <c r="H24" s="106">
         <v>19</v>
       </c>
-      <c r="H24" s="106">
+      <c r="I24" s="106">
         <v>264</v>
       </c>
-      <c r="I24" s="106">
+      <c r="J24" s="106">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="E25" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="F25" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="105">
+      <c r="G25" s="105">
         <v>44233.347245370373</v>
       </c>
-      <c r="G25" s="106">
+      <c r="H25" s="106">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="I25" s="106">
         <v>144</v>
       </c>
-      <c r="I25" s="106">
+      <c r="J25" s="106">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B26" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="E26" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="F26" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="105">
+      <c r="G26" s="105">
         <v>44232.208356481482</v>
       </c>
-      <c r="G26" s="106">
+      <c r="H26" s="106">
         <v>5</v>
       </c>
-      <c r="H26" s="106">
+      <c r="I26" s="106">
         <v>97</v>
       </c>
-      <c r="I26" s="106">
+      <c r="J26" s="106">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="E27" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="F27" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="105">
+      <c r="G27" s="105">
         <v>44230.229444444441</v>
       </c>
-      <c r="G27" s="106">
+      <c r="H27" s="106">
         <v>7</v>
       </c>
-      <c r="H27" s="106">
+      <c r="I27" s="106">
         <v>75</v>
       </c>
-      <c r="I27" s="104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="D28" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="E28" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="F28" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="105">
+      <c r="G28" s="105">
         <v>44230.066736111112</v>
       </c>
-      <c r="G28" s="106">
+      <c r="H28" s="106">
         <v>2</v>
       </c>
-      <c r="H28" s="106">
-        <v>106</v>
-      </c>
       <c r="I28" s="106">
+        <v>106</v>
+      </c>
+      <c r="J28" s="106">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="132" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="128" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="128" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="D29" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="128" t="s">
+      <c r="E29" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="129" t="s">
+      <c r="F29" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="130">
+      <c r="G29" s="130">
         <v>44229.03334490741</v>
       </c>
-      <c r="G29" s="131">
+      <c r="H29" s="131">
         <v>2</v>
       </c>
-      <c r="H29" s="131">
+      <c r="I29" s="131">
         <v>77</v>
       </c>
-      <c r="I29" s="131">
+      <c r="J29" s="131">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="41">
         <f>56-33+1</f>
         <v>24</v>
       </c>
@@ -8033,8 +8165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8179,7 +8311,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="112" t="s">
         <v>152</v>
@@ -8211,7 +8343,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="112" t="s">
         <v>155</v>
@@ -8275,7 +8407,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="112" t="s">
         <v>161</v>
@@ -8307,7 +8439,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="112" t="s">
         <v>164</v>
@@ -8339,7 +8471,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="134" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="112" t="s">
         <v>167</v>

--- a/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="8676"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="8676" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1. Yêu cầu thiết kế" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="281">
   <si>
     <t>YÊU CẦU THIẾT KẾ TRANG FANPAGE TRÊN NỀN TẢNG POWER BI</t>
   </si>
@@ -1334,6 +1334,9 @@
   </si>
   <si>
     <t>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</t>
+  </si>
+  <si>
+    <t>((d10+d11)/d7)*100</t>
   </si>
 </sst>
 </file>
@@ -2587,6 +2590,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2632,147 +2779,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2853,9 +2859,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3750,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H31"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3770,19 +3773,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3790,21 +3793,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="142" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="147" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="195" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3839,7 +3842,7 @@
       <c r="J4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="148"/>
+      <c r="K4" s="196"/>
     </row>
     <row r="5" spans="1:11" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
@@ -3864,10 +3867,10 @@
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="184" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="95" t="s">
@@ -3885,10 +3888,10 @@
       <c r="H6" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="151" t="s">
+      <c r="I6" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J6" s="184" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="70"/>
@@ -3897,8 +3900,8 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="185"/>
       <c r="D7" s="95" t="s">
         <v>57</v>
       </c>
@@ -3914,8 +3917,8 @@
       <c r="H7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="152"/>
-      <c r="J7" s="137"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="185"/>
       <c r="K7" s="71" t="s">
         <v>277</v>
       </c>
@@ -3924,8 +3927,8 @@
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="137"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="95" t="s">
         <v>67</v>
       </c>
@@ -3941,16 +3944,16 @@
       <c r="H8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="152"/>
-      <c r="J8" s="137"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="185"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="137"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="185"/>
       <c r="D9" s="95" t="s">
         <v>46</v>
       </c>
@@ -3966,16 +3969,16 @@
       <c r="H9" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="152"/>
-      <c r="J9" s="137"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="185"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="185"/>
       <c r="D10" s="96" t="s">
         <v>120</v>
       </c>
@@ -3988,17 +3991,17 @@
       <c r="G10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="185"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="185"/>
       <c r="D11" s="97" t="s">
         <v>118</v>
       </c>
@@ -4011,34 +4014,34 @@
       <c r="G11" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="137"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="185"/>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="137"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="185"/>
       <c r="D12" s="97"/>
       <c r="E12" s="86"/>
       <c r="F12" s="38"/>
       <c r="G12" s="94"/>
       <c r="H12" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="137"/>
+        <v>280</v>
+      </c>
+      <c r="I12" s="171"/>
+      <c r="J12" s="185"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="137"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="98" t="s">
         <v>72</v>
       </c>
@@ -4054,16 +4057,16 @@
       <c r="H13" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="137"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="185"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="99" t="s">
         <v>46</v>
       </c>
@@ -4075,8 +4078,8 @@
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="138"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="186"/>
       <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4105,10 +4108,10 @@
       <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="165" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="95" t="str">
@@ -4130,10 +4133,10 @@
       <c r="H16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="151" t="s">
+      <c r="I16" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="158" t="s">
+      <c r="J16" s="165" t="s">
         <v>32</v>
       </c>
       <c r="K16" s="52"/>
@@ -4142,8 +4145,8 @@
       <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="158"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="98" t="s">
         <v>82</v>
       </c>
@@ -4159,8 +4162,8 @@
       <c r="H17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="152"/>
-      <c r="J17" s="158"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="165"/>
       <c r="K17" s="53" t="s">
         <v>111</v>
       </c>
@@ -4169,8 +4172,8 @@
       <c r="A18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="158"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="98" t="s">
         <v>110</v>
       </c>
@@ -4186,8 +4189,8 @@
       <c r="H18" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="158"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="165"/>
       <c r="K18" s="54" t="s">
         <v>112</v>
       </c>
@@ -4196,8 +4199,8 @@
       <c r="A19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="159"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="101" t="s">
         <v>84</v>
       </c>
@@ -4211,8 +4214,8 @@
         <v>46</v>
       </c>
       <c r="H19" s="78"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="159"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="166"/>
       <c r="K19" s="59" t="s">
         <v>228</v>
       </c>
@@ -4242,10 +4245,10 @@
       <c r="A21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="152" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="96" t="s">
@@ -4263,13 +4266,13 @@
       <c r="H21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="173" t="s">
+      <c r="I21" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="162" t="s">
+      <c r="J21" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="179" t="s">
+      <c r="K21" s="139" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4277,8 +4280,8 @@
       <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="100" t="s">
         <v>117</v>
       </c>
@@ -4292,9 +4295,9 @@
         <v>79</v>
       </c>
       <c r="H22" s="78"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="180"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="140"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
@@ -4310,7 +4313,7 @@
       <c r="E23" s="77"/>
       <c r="F23" s="77"/>
       <c r="G23" s="89"/>
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="163" t="s">
         <v>127</v>
       </c>
       <c r="I23" s="78"/>
@@ -4318,13 +4321,13 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="152" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="96" t="s">
@@ -4339,19 +4342,19 @@
       <c r="G24" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="173" t="s">
+      <c r="H24" s="164"/>
+      <c r="I24" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="170" t="s">
+      <c r="J24" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="178"/>
+      <c r="K24" s="138"/>
     </row>
     <row r="25" spans="1:11" s="85" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="189"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="97" t="s">
         <v>118</v>
       </c>
@@ -4367,38 +4370,38 @@
       <c r="H25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="186"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="178"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="138"/>
     </row>
     <row r="26" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="167" t="s">
+      <c r="C26" s="153"/>
+      <c r="D26" s="181" t="s">
         <v>129</v>
       </c>
       <c r="E26" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="164" t="s">
+      <c r="F26" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="190" t="s">
+      <c r="G26" s="155" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="173" t="s">
+      <c r="I26" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="171"/>
-      <c r="K26" s="177" t="s">
+      <c r="J26" s="168"/>
+      <c r="K26" s="137" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4406,62 +4409,62 @@
       <c r="A27" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="168"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="191"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="156"/>
       <c r="H27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="175"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="178"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="138"/>
     </row>
     <row r="28" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="187"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="169"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="192"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="157"/>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="175"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="178"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="138"/>
     </row>
     <row r="29" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="187"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="194"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="164" t="s">
+      <c r="F29" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="190" t="s">
+      <c r="G29" s="155" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="175"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="177" t="s">
+      <c r="I29" s="174"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="137" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4469,58 +4472,58 @@
       <c r="A30" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="195"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="160"/>
       <c r="E30" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="191"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="175"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="178"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="138"/>
     </row>
     <row r="31" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="187"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="195"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="160"/>
       <c r="E31" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="165"/>
-      <c r="G31" s="191"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="156"/>
       <c r="H31" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="175"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="178"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="138"/>
     </row>
     <row r="32" spans="1:11" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="196"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="161"/>
       <c r="E32" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="181"/>
-      <c r="G32" s="193"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="176"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="197"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="162"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M33" s="1"/>
@@ -4849,6 +4852,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J6:J14"/>
+    <mergeCell ref="I6:I14"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I32"/>
     <mergeCell ref="K26:K28"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="F29:F32"/>
@@ -4863,28 +4888,6 @@
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="K29:K32"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J24:J32"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J6:J14"/>
-    <mergeCell ref="I6:I14"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4932,23 +4935,23 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="203"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="200" t="s">
+      <c r="E5" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203"/>
     </row>
     <row r="6" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -4960,21 +4963,21 @@
       <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="208"/>
+      <c r="F6" s="209"/>
       <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="222" t="s">
+      <c r="H6" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="225"/>
     </row>
     <row r="7" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -4986,19 +4989,19 @@
       <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="213" t="s">
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="216"/>
     </row>
     <row r="8" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -5010,15 +5013,15 @@
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="218"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="219"/>
     </row>
     <row r="9" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -5030,15 +5033,15 @@
       <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="209"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="218"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="219"/>
     </row>
     <row r="10" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -5050,15 +5053,15 @@
       <c r="C10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="209"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="219"/>
     </row>
     <row r="11" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5070,15 +5073,15 @@
       <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="209"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="218"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="219"/>
     </row>
     <row r="12" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -5090,15 +5093,15 @@
       <c r="C12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="209"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="218"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="219"/>
     </row>
     <row r="13" spans="1:13" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -5110,35 +5113,35 @@
       <c r="C13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="221"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="222"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="202"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="200" t="s">
+      <c r="G15" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="203"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -5159,31 +5162,31 @@
       <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="205"/>
       <c r="F17" s="108"/>
       <c r="G17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="199" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="204"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="108"/>
       <c r="G18" s="125"/>
       <c r="H18" s="3"/>
@@ -5197,10 +5200,10 @@
       <c r="A19" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="206"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="207"/>
       <c r="F19" s="108"/>
       <c r="G19" s="127" t="s">
         <v>241</v>
@@ -7067,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="B7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7076,8 +7079,8 @@
     <col min="1" max="1" width="21.44140625" style="41" customWidth="1"/>
     <col min="2" max="2" width="51.77734375" style="41" customWidth="1"/>
     <col min="3" max="3" width="55.109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" style="107" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="107" customWidth="1"/>
     <col min="8" max="10" width="12.109375" style="107" customWidth="1"/>
@@ -7182,7 +7185,7 @@
       <c r="A4" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="136" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -7406,7 +7409,7 @@
       <c r="A11" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="136" t="s">
         <v>164</v>
       </c>
       <c r="C11" s="42" t="s">
@@ -7470,7 +7473,7 @@
       <c r="A13" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="136" t="s">
         <v>167</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -7534,7 +7537,7 @@
       <c r="A15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="136" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -7598,7 +7601,7 @@
       <c r="A17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="136" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -7694,7 +7697,7 @@
       <c r="A20" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="136" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="42" t="s">
@@ -7790,7 +7793,7 @@
       <c r="A23" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="136" t="s">
         <v>187</v>
       </c>
       <c r="C23" s="128" t="s">
@@ -8165,8 +8168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
